--- a/CSD_Daily_status.xlsx
+++ b/CSD_Daily_status.xlsx
@@ -1,17 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PERS\bench_status\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7324F69D-B78C-483B-A45D-EBD97A433153}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kWFHmNGnqNKFGijJvfabpUvI1EKsE0VWrBedqe5ViS0byVu+xezzeGL/1vzrR4TYE2jxLdUqJ5l+ZYPmwCdWxg==" workbookSaltValue="C6ZiAuHqpsuNFxKAC/BOLA==" workbookSpinCount="100000" lockStructure="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="status-18-03-2020" sheetId="14" r:id="rId1"/>
@@ -33,9 +27,9 @@
     <sheet name="Status-17-04-2020" sheetId="34" r:id="rId17"/>
     <sheet name="Status-20-04-2020" sheetId="35" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -713,12 +707,15 @@
   <si>
     <t>Going through Devops Training - Jenkins pipeline.</t>
   </si>
+  <si>
+    <t>going through Javascript Versions-ES5,ES6 features.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1110,7 +1107,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1304,33 +1301,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384">
       <c r="A2" s="2">
         <v>43908</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>181577</v>
@@ -1395,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>67908</v>
@@ -1416,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>156137</v>
@@ -1437,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="28.8">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>186918</v>
@@ -1458,7 +1455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>187207</v>
@@ -1479,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="86.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11">
         <v>132584</v>
@@ -1503,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="43.2">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>187175</v>
@@ -1527,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="28.8">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -1551,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>189815</v>
@@ -1572,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" s="4" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>155867</v>
@@ -17966,7 +17963,7 @@
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="57.6">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>185010</v>
@@ -17987,10 +17984,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384">
       <c r="A15" s="10"/>
       <c r="B15" s="13">
         <v>46011902</v>
@@ -18010,70 +18007,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="C29" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kOaXWcI4l4I9GK58pzxvuJtTnR9/lNm0Nv3i8PhQgNQkx5+GH7n4Nq/x/yVywL54ZnuRMOr07SENX89uVTYIqw==" saltValue="r1Yeom9g3/jhqlxIiwFehQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18096,7 +18093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18114,7 +18111,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18131,7 +18128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18148,7 +18145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18165,7 +18162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18182,7 +18179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18203,7 +18200,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18220,7 +18217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18240,7 +18237,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18258,7 +18255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18279,7 +18276,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18295,7 +18292,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="28.8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18313,7 +18310,7 @@
       </c>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18331,7 +18328,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18348,7 +18345,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18362,7 +18359,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18379,7 +18376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18397,24 +18394,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18437,7 +18434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18455,7 +18452,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18472,7 +18469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18489,7 +18486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18506,7 +18503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18523,7 +18520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18544,7 +18541,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18558,7 +18555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18581,7 +18578,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18599,7 +18596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18620,7 +18617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18636,7 +18633,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -18657,7 +18654,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -18675,7 +18672,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -18692,7 +18689,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -18709,7 +18706,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -18726,7 +18723,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -18744,24 +18741,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18784,7 +18781,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -18802,7 +18799,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18819,7 +18816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18836,7 +18833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -18853,7 +18850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18870,7 +18867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -18891,7 +18888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -18905,7 +18902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -18928,7 +18925,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -18946,7 +18943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -18967,7 +18964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -18983,7 +18980,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19004,7 +19001,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19022,7 +19019,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19041,7 +19038,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19058,7 +19055,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19075,7 +19072,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19093,24 +19090,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19133,7 +19130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19151,7 +19148,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19168,7 +19165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19185,7 +19182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19202,7 +19199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19219,7 +19216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19243,7 +19240,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19257,7 +19254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19280,7 +19277,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19298,7 +19295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19319,7 +19316,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19335,7 +19332,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19356,7 +19353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19374,7 +19371,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19393,7 +19390,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19410,7 +19407,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19427,7 +19424,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19445,24 +19442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19485,7 +19482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19503,7 +19500,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19520,7 +19517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19537,7 +19534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19554,7 +19551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19571,7 +19568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19595,7 +19592,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19609,7 +19606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19632,7 +19629,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -19650,7 +19647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -19671,7 +19668,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -19687,7 +19684,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -19708,7 +19705,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -19726,7 +19723,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -19745,7 +19742,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -19762,7 +19759,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -19779,7 +19776,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -19797,24 +19794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19837,7 +19834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -19855,7 +19852,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19872,7 +19869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19889,7 +19886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19906,7 +19903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -19923,7 +19920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -19947,7 +19944,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19961,7 +19958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="28.8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19984,7 +19981,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20002,7 +19999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20023,7 +20020,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20039,7 +20036,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20060,7 +20057,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20078,7 +20075,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20097,7 +20094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20114,7 +20111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20131,7 +20128,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20149,24 +20146,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20189,7 +20186,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -20207,7 +20204,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20224,7 +20221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20241,7 +20238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20258,7 +20255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -20275,7 +20272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -20299,7 +20296,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20313,7 +20310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20336,7 +20333,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -20354,7 +20351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -20375,7 +20372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -20391,7 +20388,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -20412,7 +20409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -20430,7 +20427,7 @@
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -20449,7 +20446,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -20466,7 +20463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -20483,7 +20480,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -20501,24 +20498,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -20541,7 +20538,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20559,7 +20556,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20576,7 +20573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20593,7 +20590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -20610,7 +20607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -20634,7 +20631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -20651,7 +20648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -20674,7 +20671,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.549999999999997" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -20692,7 +20689,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -20715,7 +20712,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -20733,7 +20730,7 @@
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -20754,7 +20751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -20772,7 +20769,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -20790,7 +20787,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -20807,7 +20804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20821,7 +20818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20838,7 +20835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20855,7 +20852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20872,7 +20869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -20892,7 +20889,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20909,7 +20906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20926,7 +20923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20943,7 +20940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20960,7 +20957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20977,7 +20974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -20992,7 +20989,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -21006,7 +21003,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -21020,7 +21017,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -21034,7 +21031,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -21048,7 +21045,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21065,30 +21062,30 @@
       <c r="F31" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pCQypCgrCIGaj0R5jruDogmD1nva92vodDdkBb/0qqPN0/uJpfkjdU9RzLF0RGBfP8/w1jW70Gd8Ji6BpvBRdA==" saltValue="4yBEc5XeWsNGVHPemtIR9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB8ECD0-792E-4F36-AA74-889257A30E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -21108,7 +21105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21124,7 +21121,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21139,7 +21136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21153,7 +21150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -21168,7 +21165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21184,7 +21181,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -21201,7 +21198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -21219,7 +21216,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -21235,7 +21232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="34.049999999999997" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -21253,7 +21250,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -21263,13 +21260,15 @@
       <c r="C11" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="50" t="s">
+        <v>223</v>
+      </c>
       <c r="E11" s="18">
         <v>9</v>
       </c>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -21285,7 +21284,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -21301,7 +21300,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -21316,7 +21315,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -21330,7 +21329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -21344,7 +21343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -21358,7 +21357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -21372,7 +21371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -21386,7 +21385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -21404,7 +21403,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -21418,7 +21417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -21432,7 +21431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -21446,7 +21445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -21460,7 +21459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -21474,7 +21473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -21489,7 +21488,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -21505,7 +21504,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -21521,7 +21520,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -21537,7 +21536,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -21553,7 +21552,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -21576,23 +21575,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21612,7 +21611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -21632,7 +21631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21644,7 +21643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.45" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21658,7 +21657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.05" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21672,7 +21671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>186918</v>
       </c>
@@ -21686,7 +21685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21700,7 +21699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="31.95" customHeight="1">
       <c r="B8" s="11">
         <v>132584</v>
       </c>
@@ -21714,7 +21713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="31.95" customHeight="1">
       <c r="B9" s="11">
         <v>187175</v>
       </c>
@@ -21731,7 +21730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>146199</v>
@@ -21749,7 +21748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>189815</v>
@@ -21764,7 +21763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>155867</v>
@@ -21777,7 +21776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="27.45" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -21791,7 +21790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="B14" s="13">
         <v>46011902</v>
       </c>
@@ -21806,28 +21805,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+YsNC2LEwkQZtPvrVg+RTTJKRC7s33CKEuhqXf/gRoLi3Ko88ZEeRnUTxARGY81xPgOfYAnsNgVeV6MeLCYWjg==" saltValue="SCVr6IMqSLq4iVyOsKru9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21847,7 +21846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -21864,7 +21863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -21878,7 +21877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.45" customHeight="1">
       <c r="B4">
         <v>67908</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.05" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -21906,7 +21905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -21920,7 +21919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7">
         <v>187207</v>
       </c>
@@ -21934,7 +21933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="31.95" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -21948,7 +21947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -21966,7 +21965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>189815</v>
@@ -21984,7 +21983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22002,7 +22001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25.05" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22016,7 +22015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22031,29 +22030,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y4VhTOLVrkF+DIJYCmRqR5XOUUx53uzjmJJqKVSShOL/wVORbiB8qpcN359mMA0t8QSNiQr+PoXB7vAbwv/H/Q==" saltValue="wv1BwiANv/07k1WdbDRsLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22073,7 +22072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22090,7 +22089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="24.45" customHeight="1">
       <c r="B3">
         <v>181577</v>
       </c>
@@ -22104,7 +22103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27.45" customHeight="1">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -22121,7 +22120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.05" customHeight="1">
       <c r="B5">
         <v>156137</v>
       </c>
@@ -22135,7 +22134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="14">
         <v>186918</v>
       </c>
@@ -22149,7 +22148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="B7" s="11">
         <v>187207</v>
       </c>
@@ -22163,7 +22162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="31.95" customHeight="1">
       <c r="B8">
         <v>187175</v>
       </c>
@@ -22177,7 +22176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>146199</v>
@@ -22195,7 +22194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="14">
         <v>189815</v>
@@ -22210,7 +22209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>155867</v>
@@ -22228,7 +22227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25.05" customHeight="1">
       <c r="B12">
         <v>46011902</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="B13">
         <v>185010</v>
       </c>
@@ -22257,29 +22256,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k4O/GBzmHEr5E9TreHcabxmUDX3aJp9GIVPev88mcT0fNv0tG/5YSctogBChyqFHXpf41u/cUQEP2Rkghou/0g==" saltValue="32i46YCv2uHOHDaOWpm8bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22299,7 +22298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22317,7 +22316,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22334,7 +22333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.05" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22348,7 +22347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22363,7 +22362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22378,7 +22377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>185010</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="46.95" customHeight="1">
       <c r="B8">
         <v>154447</v>
       </c>
@@ -22409,7 +22408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="66.45" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="16" t="s">
@@ -22425,7 +22424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="25.05" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="16" t="s">
@@ -22441,7 +22440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="25.05" customHeight="1">
       <c r="B11" s="21">
         <v>46011902</v>
       </c>
@@ -22454,7 +22453,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="B12" s="21">
         <v>132584</v>
       </c>
@@ -22467,7 +22466,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8">
       <c r="B13" s="21">
         <v>119065</v>
       </c>
@@ -22482,7 +22481,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22497,7 +22496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22511,7 +22510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="9"/>
@@ -22523,23 +22522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22559,7 +22558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22577,7 +22576,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22594,7 +22593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22621,7 +22620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22636,7 +22635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22652,7 +22651,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22666,7 +22665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22681,7 +22680,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22697,7 +22696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
@@ -22713,7 +22712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22726,7 +22725,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22739,7 +22738,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -22754,7 +22753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -22775,23 +22774,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22811,7 +22810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -22827,7 +22826,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -22841,7 +22840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="35.549999999999997" customHeight="1">
       <c r="B4">
         <v>156137</v>
       </c>
@@ -22855,7 +22854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>186918</v>
@@ -22868,7 +22867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="11"/>
       <c r="B6" s="14">
         <v>189815</v>
@@ -22883,7 +22882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="14">
         <v>119065</v>
@@ -22899,7 +22898,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="28.8">
       <c r="B8">
         <v>185010</v>
       </c>
@@ -22913,7 +22912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="B9">
         <v>154447</v>
       </c>
@@ -22928,7 +22927,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
@@ -22944,7 +22943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="100.5" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>175816</v>
@@ -22962,7 +22961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="B12" s="21">
         <v>46011902</v>
       </c>
@@ -22975,7 +22974,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="21">
         <v>132584</v>
       </c>
@@ -22988,7 +22987,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>66</v>
@@ -23003,7 +23002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23024,23 +23023,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -23060,7 +23059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
@@ -23078,7 +23077,7 @@
       </c>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.45" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30">
         <v>67908</v>
@@ -23094,7 +23093,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.55" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30">
         <v>156137</v>
@@ -23110,7 +23109,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="31"/>
       <c r="B5" s="31">
         <v>186918</v>
@@ -23126,7 +23125,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="35"/>
       <c r="B6" s="31">
         <v>189815</v>
@@ -23142,7 +23141,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="35"/>
       <c r="B7" s="31">
         <v>119065</v>
@@ -23158,7 +23157,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="30"/>
       <c r="B8" s="30">
         <v>154447</v>
@@ -23174,7 +23173,7 @@
       </c>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="40">
         <v>175816</v>
@@ -23190,7 +23189,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="30"/>
       <c r="B10" s="30">
         <v>185010</v>
@@ -23206,7 +23205,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.549999999999997" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="40"/>
       <c r="C11" s="35" t="s">
@@ -23222,7 +23221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="30"/>
       <c r="B12" s="43">
         <v>46011902</v>
@@ -23238,7 +23237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8">
       <c r="A13" s="30"/>
       <c r="B13" s="43">
         <v>132584</v>
@@ -23254,7 +23253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="30"/>
       <c r="B14" s="43"/>
       <c r="C14" s="46" t="s">
@@ -23268,7 +23267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="46" t="s">
@@ -23289,24 +23288,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23329,7 +23328,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -23347,7 +23346,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="27.45" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23364,7 +23363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.549999999999997" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -23398,7 +23397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -23415,7 +23414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -23433,7 +23432,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -23450,7 +23449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -23468,7 +23467,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -23486,7 +23485,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="34.049999999999997" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -23504,7 +23503,7 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -23520,7 +23519,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -23536,7 +23535,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -23552,7 +23551,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -23566,7 +23565,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -23584,7 +23583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -23601,7 +23600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
